--- a/biology/Botanique/Erythroxylaceae/Erythroxylaceae.xlsx
+++ b/biology/Botanique/Erythroxylaceae/Erythroxylaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erythroxylaceae (les Érythroxylacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales comprenant environ 250 espèces réparties en 4 genres.
 Ce sont des arbres ou des arbustes des régions subtropicales à tropicales.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Erythroxylum dérivé du grec ερυθρός / erythros, rouge, et ξύλων / xylon, bois.
 </t>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place maintenant cette famille dans l'ordre des Malpighiales.
 </t>
@@ -575,14 +591,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (23 mai 2010)[2], NCBI  (23 mai 2010)[3] et DELTA Angio           (23 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (23 mai 2010), NCBI  (23 mai 2010) et DELTA Angio           (23 mai 2010) :
 genre Aneulophus (es) Benth.
 genre Erythroxylum P.Browne
 genre Nectaropetalum (es) Engl.
 genre Pinacopodium (es) Exell &amp; Mendonca
-Selon ITIS      (23 mai 2010)[5] :
+Selon ITIS      (23 mai 2010) :
 genre Erythroxylum P. Br.</t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mai 2010) :
 genre Aneulophus
 Aneulophus africanus
 genre Erythroxylum
@@ -631,7 +651,7 @@
 Nectaropetalum zuluense
 genre Pinacopodium
 Pinacopodium congolense
-Liste des espèces surveillées par UICN  (7 août 2010)[6] :
+Liste des espèces surveillées par UICN  (7 août 2010) :
 Erythroxylum acranthum (statut : vulnérable)
 Erythroxylum echinodendron (statut : éteint dans la nature)
 Erythroxylum incrassatum (statut : vulnérable)
